--- a/DesignerConfigs/Datas/test/multi_rows_record.xlsx
+++ b/DesignerConfigs/Datas/test/multi_rows_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB50CD0-F3C1-4ED1-9F1F-17681B697901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DF820B-10C5-4862-B99D-D23D5D4877C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28785" yWindow="1065" windowWidth="26100" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="540" windowWidth="26100" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>##</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>注释行</t>
-  </si>
-  <si>
-    <t>随便填</t>
   </si>
   <si>
     <t>xxx</t>
@@ -115,12 +112,16 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>除了multi_rows字段外的其他字段要么全空，要么跟该记录第一行相同，才会判定为同个记录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +165,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -205,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,23 +225,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -513,7 +529,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,8 +542,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>20</v>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -538,31 +554,31 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4" t="s">
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="4" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
       <c r="R2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
@@ -584,15 +600,15 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="R3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
@@ -609,15 +625,15 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="7" t="s">
+      <c r="R4" s="3"/>
+      <c r="S4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
@@ -666,20 +682,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
+      <c r="D6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -735,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -787,11 +812,32 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
       <c r="I9">
         <v>3</v>
       </c>
       <c r="J9">
         <v>4</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
       </c>
       <c r="S9">
         <v>200</v>
@@ -801,6 +847,12 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
       <c r="K10">
         <v>2</v>
       </c>
@@ -821,6 +873,12 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
       <c r="R11">
         <v>4</v>
       </c>
@@ -832,6 +890,27 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
       <c r="S12">
         <v>500</v>
       </c>
@@ -840,6 +919,27 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
       <c r="S13">
         <v>600</v>
       </c>
@@ -852,7 +952,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -887,8 +987,29 @@
       <c r="Q14">
         <v>3</v>
       </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>100</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
       <c r="G15">
         <v>2</v>
       </c>
@@ -913,8 +1034,29 @@
       <c r="Q15">
         <v>4</v>
       </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>200</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
       <c r="I16">
         <v>3</v>
       </c>
@@ -933,8 +1075,29 @@
       <c r="Q16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>300</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
       <c r="K17">
         <v>2</v>
       </c>
@@ -944,9 +1107,22 @@
       <c r="M17">
         <v>4</v>
       </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>400</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C7:T17">
+    <sortCondition ref="C7:C17"/>
+  </sortState>
+  <mergeCells count="9">
+    <mergeCell ref="D6:M6"/>
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="S3:V3"/>
     <mergeCell ref="A2:A4"/>

--- a/DesignerConfigs/Datas/test/multi_rows_record.xlsx
+++ b/DesignerConfigs/Datas/test/multi_rows_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DF820B-10C5-4862-B99D-D23D5D4877C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBA314A-9162-476A-AA87-4EC007DEEEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="540" windowWidth="26100" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="645" windowWidth="26100" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>##</t>
   </si>
@@ -113,7 +113,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>除了multi_rows字段外的其他字段要么全空，要么跟该记录第一行相同，才会判定为同个记录</t>
+    <t>除了multi_rows字段外的其他字段要么全空，要么跟该记录第一行相同（只有顶层multi_rows才支持)，才会判定为同个记录</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -234,6 +234,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -241,12 +247,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,7 +529,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D6" sqref="D6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -547,46 +547,46 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
+      <c r="A2" s="8"/>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="7" t="s">
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="7" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="6" t="s">
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="8"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -603,15 +603,15 @@
       <c r="R3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="8"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -686,18 +686,18 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7">
@@ -836,9 +836,6 @@
       <c r="J9">
         <v>4</v>
       </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
       <c r="S9">
         <v>200</v>
       </c>
@@ -847,6 +844,18 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
       <c r="G10">
         <v>2</v>
       </c>
@@ -873,6 +882,18 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
       <c r="G11">
         <v>2</v>
       </c>
@@ -908,9 +929,6 @@
       <c r="H12">
         <v>4</v>
       </c>
-      <c r="R12">
-        <v>4</v>
-      </c>
       <c r="S12">
         <v>500</v>
       </c>
@@ -937,9 +955,6 @@
       <c r="H13">
         <v>4</v>
       </c>
-      <c r="R13">
-        <v>4</v>
-      </c>
       <c r="S13">
         <v>600</v>
       </c>
@@ -1034,9 +1049,6 @@
       <c r="Q15">
         <v>4</v>
       </c>
-      <c r="R15">
-        <v>5</v>
-      </c>
       <c r="S15">
         <v>200</v>
       </c>
@@ -1075,9 +1087,6 @@
       <c r="Q16">
         <v>4</v>
       </c>
-      <c r="R16">
-        <v>5</v>
-      </c>
       <c r="S16">
         <v>300</v>
       </c>
@@ -1106,9 +1115,6 @@
       </c>
       <c r="M17">
         <v>4</v>
-      </c>
-      <c r="R17">
-        <v>5</v>
       </c>
       <c r="S17">
         <v>400</v>

--- a/DesignerConfigs/Datas/test/multi_rows_record.xlsx
+++ b/DesignerConfigs/Datas/test/multi_rows_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBA314A-9162-476A-AA87-4EC007DEEEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB43C98-96E9-462B-8C2B-00A1C1CE4650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="645" windowWidth="26100" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14205" yWindow="1080" windowWidth="33540" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>##</t>
   </si>
@@ -72,10 +72,6 @@
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -116,12 +112,20 @@
     <t>除了multi_rows字段外的其他字段要么全空，要么跟该记录第一行相同（只有顶层multi_rows才支持)，才会判定为同个记录</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>multi_rows6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi_rows7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +178,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +206,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -204,7 +221,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,8 +231,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,6 +254,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -243,14 +272,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
@@ -526,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:M6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -538,55 +568,67 @@
     <col min="9" max="9" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
+      <c r="E2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="9" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="8" t="s">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -603,15 +645,31 @@
       <c r="R3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="S3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -626,16 +684,20 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -682,24 +744,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>1</v>
       </c>
@@ -754,8 +816,20 @@
       <c r="T7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AA7">
+        <v>10</v>
+      </c>
+      <c r="AB7">
+        <v>10</v>
+      </c>
+      <c r="AC7">
+        <v>30</v>
+      </c>
+      <c r="AD7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>2</v>
       </c>
@@ -810,8 +884,20 @@
       <c r="T8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>100</v>
+      </c>
+      <c r="AB8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>2</v>
       </c>
@@ -842,8 +928,14 @@
       <c r="T9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9">
+        <v>22</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>2</v>
       </c>
@@ -880,8 +972,14 @@
       <c r="T10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10">
+        <v>222</v>
+      </c>
+      <c r="X10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>2</v>
       </c>
@@ -909,8 +1007,14 @@
       <c r="T11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11">
+        <v>2222</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>2</v>
       </c>
@@ -936,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>2</v>
       </c>
@@ -962,7 +1066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>3</v>
       </c>
@@ -1011,8 +1115,26 @@
       <c r="T14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Z14">
+        <v>4</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>2</v>
+      </c>
+      <c r="AD14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>3</v>
       </c>
@@ -1055,8 +1177,17 @@
       <c r="T15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <v>20</v>
+      </c>
+      <c r="Z15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>3</v>
       </c>
@@ -1093,8 +1224,17 @@
       <c r="T16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="W16">
+        <v>100</v>
+      </c>
+      <c r="X16">
+        <v>200</v>
+      </c>
+      <c r="Z16">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>3</v>
       </c>
@@ -1121,13 +1261,24 @@
       </c>
       <c r="T17">
         <v>4</v>
+      </c>
+      <c r="W17">
+        <v>1000</v>
+      </c>
+      <c r="X17">
+        <v>2000</v>
+      </c>
+      <c r="Z17">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C7:T17">
     <sortCondition ref="C7:C17"/>
   </sortState>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="W2:Z2"/>
     <mergeCell ref="D6:M6"/>
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="S3:V3"/>

--- a/DesignerConfigs/Datas/test/multi_rows_record.xlsx
+++ b/DesignerConfigs/Datas/test/multi_rows_record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB43C98-96E9-462B-8C2B-00A1C1CE4650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8784DC43-FBA1-444E-9CBE-6B715C567087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="1080" windowWidth="33540" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>##</t>
   </si>
@@ -34,18 +34,6 @@
     <t>one_rows</t>
   </si>
   <si>
-    <t>multi_rows1</t>
-  </si>
-  <si>
-    <t>multi_rows2</t>
-  </si>
-  <si>
-    <t>multi_rows3</t>
-  </si>
-  <si>
-    <t>multi_rows4</t>
-  </si>
-  <si>
     <t>名字</t>
   </si>
   <si>
@@ -67,28 +55,7 @@
     <t>ds</t>
   </si>
   <si>
-    <t>multi_rows5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tems</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -113,11 +80,48 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>multi_rows6</t>
+    <t>multi_rows7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>multi_rows7</t>
+    <t>multi_rows1&amp;multi_rows=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi_rows2&amp;multi_rows=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi_rows3&amp;multi_rows=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi_rows4&amp;multi_rows=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>multi_rows5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;multi_rows=1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi_rows6&amp;multi_rows=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>items&amp;multi_rows=1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +141,7 @@
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -144,18 +149,12 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -163,7 +162,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -231,7 +230,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -260,22 +259,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,13 +557,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -573,62 +574,62 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="12" t="s">
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
+      <c r="A3" s="8"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -643,14 +644,14 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
@@ -669,7 +670,7 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="8"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -702,71 +703,71 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I5" t="s">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K5" t="s">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O5" t="s">
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -834,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -888,7 +889,13 @@
         <v>2</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
       </c>
       <c r="AA8">
         <v>100</v>
@@ -898,18 +905,6 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
       <c r="G9">
         <v>2</v>
       </c>
@@ -932,22 +927,16 @@
         <v>22</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="Y9">
+        <v>22</v>
+      </c>
+      <c r="Z9">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
       <c r="G10">
         <v>2</v>
       </c>
@@ -978,20 +967,14 @@
       <c r="X10">
         <v>3</v>
       </c>
+      <c r="Y10">
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
       <c r="G11">
         <v>2</v>
       </c>
@@ -1013,20 +996,14 @@
       <c r="X11">
         <v>4</v>
       </c>
+      <c r="Y11">
+        <v>4</v>
+      </c>
+      <c r="Z11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
       <c r="G12">
         <v>2</v>
       </c>
@@ -1041,18 +1018,6 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
       <c r="G13">
         <v>2</v>
       </c>
@@ -1071,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1121,6 +1086,9 @@
       <c r="X14">
         <v>2</v>
       </c>
+      <c r="Y14">
+        <v>3</v>
+      </c>
       <c r="Z14">
         <v>4</v>
       </c>
@@ -1135,18 +1103,6 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
       <c r="G15">
         <v>2</v>
       </c>
@@ -1183,23 +1139,14 @@
       <c r="X15">
         <v>20</v>
       </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
       <c r="Z15">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
       <c r="I16">
         <v>3</v>
       </c>
@@ -1230,23 +1177,14 @@
       <c r="X16">
         <v>200</v>
       </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
       <c r="Z16">
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
+    <row r="17" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K17">
         <v>2</v>
       </c>
@@ -1267,6 +1205,9 @@
       </c>
       <c r="X17">
         <v>2000</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
       </c>
       <c r="Z17">
         <v>4000</v>
@@ -1282,12 +1223,12 @@
     <mergeCell ref="D6:M6"/>
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="S3:V3"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignerConfigs/Datas/test/multi_rows_record.xlsx
+++ b/DesignerConfigs/Datas/test/multi_rows_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8784DC43-FBA1-444E-9CBE-6B715C567087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFBFFCC-F888-4445-8FA8-BF94C3301000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30000" yWindow="1845" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>除了multi_rows字段外的其他字段要么全空，要么跟该记录第一行相同（只有顶层multi_rows才支持)，才会判定为同个记录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>multi_rows7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -88,40 +84,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>multi_rows2&amp;multi_rows=1</t>
+    <t>items&amp;multi_rows=1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>multi_rows3&amp;multi_rows=1</t>
+    <t>*multi_rows2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>multi_rows4&amp;multi_rows=1</t>
+    <t>*multi_rows3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>multi_rows5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;multi_rows=1</t>
-    </r>
+    <t>*multi_rows4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>multi_rows6&amp;multi_rows=1</t>
+    <t>*multi_rows5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>items&amp;multi_rows=1</t>
+    <t>*multi_rows6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*&lt;name&gt; 是 &lt;name&gt;&amp;multi_rows=1的语法糖</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -259,22 +246,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -578,7 +565,7 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
+      <c r="A2" s="12"/>
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -590,46 +577,46 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="9"/>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="13" t="s">
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
       <c r="W2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
-      <c r="AA2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
+      <c r="AA2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="12"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -646,12 +633,12 @@
       <c r="R3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
+      <c r="S3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
@@ -670,7 +657,7 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="12"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -749,18 +736,18 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7">
@@ -1218,17 +1205,17 @@
     <sortCondition ref="C7:C17"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="D6:M6"/>
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="S3:V3"/>
     <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignerConfigs/Datas/test/multi_rows_record.xlsx
+++ b/DesignerConfigs/Datas/test/multi_rows_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFBFFCC-F888-4445-8FA8-BF94C3301000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E701F2A8-A92D-4643-906E-1318531183F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30000" yWindow="1845" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31875" yWindow="3075" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
-  <si>
-    <t>##</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -59,8 +56,44 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>multi_rows7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi_rows1&amp;multi_rows=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>items&amp;multi_rows=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*multi_rows2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*multi_rows3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*multi_rows4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*multi_rows5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*multi_rows6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*&lt;name&gt; 是 &lt;name&gt;&amp;multi_rows=1的语法糖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>t</t>
+      <t>#</t>
     </r>
     <r>
       <rPr>
@@ -71,44 +104,29 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>itle_rows=5</t>
+      <t>#</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>multi_rows7</t>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#field</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>multi_rows1&amp;multi_rows=1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>items&amp;multi_rows=1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*multi_rows2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*multi_rows3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*multi_rows4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*multi_rows5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*multi_rows6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*&lt;name&gt; 是 &lt;name&gt;&amp;multi_rows=1的语法糖</t>
+    <t>##</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -237,32 +255,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -542,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD17"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -557,66 +575,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="8" t="s">
+      <c r="A2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -630,173 +687,206 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="7">
-        <v>3</v>
-      </c>
-      <c r="AD3" s="7">
-        <v>4</v>
-      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" t="s">
         <v>7</v>
       </c>
-      <c r="O5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+      <c r="D5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>100</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>10</v>
+      </c>
+      <c r="AB6">
+        <v>10</v>
+      </c>
+      <c r="AC6">
+        <v>30</v>
+      </c>
+      <c r="AD6">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S7">
         <v>100</v>
@@ -804,32 +894,26 @@
       <c r="T7">
         <v>1</v>
       </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
       <c r="AA7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AB7">
-        <v>10</v>
-      </c>
-      <c r="AC7">
-        <v>30</v>
-      </c>
-      <c r="AD7">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
       <c r="G8">
         <v>2</v>
       </c>
@@ -842,53 +926,23 @@
       <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>4</v>
-      </c>
-      <c r="P8">
-        <v>5</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
       <c r="S8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="Z8">
-        <v>2</v>
-      </c>
-      <c r="AA8">
-        <v>100</v>
-      </c>
-      <c r="AB8">
-        <v>200</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -898,29 +952,35 @@
       <c r="H9">
         <v>4</v>
       </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W9">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="X9">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="Y9">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="Z9">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -930,35 +990,26 @@
       <c r="H10">
         <v>4</v>
       </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>4</v>
-      </c>
       <c r="R10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W10">
-        <v>222</v>
+        <v>2222</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -968,26 +1019,11 @@
       <c r="H11">
         <v>4</v>
       </c>
-      <c r="R11">
-        <v>4</v>
-      </c>
       <c r="S11">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T11">
-        <v>4</v>
-      </c>
-      <c r="W11">
-        <v>2222</v>
-      </c>
-      <c r="X11">
-        <v>4</v>
-      </c>
-      <c r="Y11">
-        <v>4</v>
-      </c>
-      <c r="Z11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -998,104 +1034,128 @@
         <v>4</v>
       </c>
       <c r="S12">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
       <c r="S13">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="T13">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>3</v>
+      </c>
+      <c r="Z13">
+        <v>4</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
+      </c>
+      <c r="AD13">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>200</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="W14">
         <v>10</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>3</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>2</v>
-      </c>
-      <c r="Q14">
-        <v>3</v>
-      </c>
-      <c r="R14">
-        <v>5</v>
-      </c>
-      <c r="S14">
-        <v>100</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
       <c r="X14">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Y14">
         <v>3</v>
       </c>
       <c r="Z14">
-        <v>4</v>
-      </c>
-      <c r="AA14">
-        <v>1</v>
-      </c>
-      <c r="AB14">
-        <v>2</v>
-      </c>
-      <c r="AD14">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
       <c r="I15">
         <v>3</v>
       </c>
@@ -1103,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15">
         <v>4</v>
@@ -1115,107 +1175,68 @@
         <v>4</v>
       </c>
       <c r="S15">
+        <v>300</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>100</v>
+      </c>
+      <c r="X15">
         <v>200</v>
       </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="W15">
-        <v>10</v>
-      </c>
-      <c r="X15">
-        <v>20</v>
-      </c>
       <c r="Y15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z15">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>4</v>
-      </c>
-      <c r="P16">
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <v>400</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="W16">
+        <v>1000</v>
+      </c>
+      <c r="X16">
+        <v>2000</v>
+      </c>
+      <c r="Y16">
         <v>5</v>
       </c>
-      <c r="Q16">
-        <v>4</v>
-      </c>
-      <c r="S16">
-        <v>300</v>
-      </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="W16">
-        <v>100</v>
-      </c>
-      <c r="X16">
-        <v>200</v>
-      </c>
-      <c r="Y16">
-        <v>4</v>
-      </c>
       <c r="Z16">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-      <c r="M17">
-        <v>4</v>
-      </c>
-      <c r="S17">
-        <v>400</v>
-      </c>
-      <c r="T17">
-        <v>4</v>
-      </c>
-      <c r="W17">
-        <v>1000</v>
-      </c>
-      <c r="X17">
-        <v>2000</v>
-      </c>
-      <c r="Y17">
-        <v>5</v>
-      </c>
-      <c r="Z17">
         <v>4000</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C7:T17">
-    <sortCondition ref="C7:C17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:T16">
+    <sortCondition ref="C6:C16"/>
   </sortState>
-  <mergeCells count="11">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="N2:Q2"/>
+  <mergeCells count="10">
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignerConfigs/Datas/test/multi_rows_record.xlsx
+++ b/DesignerConfigs/Datas/test/multi_rows_record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E701F2A8-A92D-4643-906E-1318531183F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA2B973-D1CE-4629-A107-B480CE1491A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31875" yWindow="3075" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31530" yWindow="1875" windowWidth="25140" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,24 +109,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#field</t>
-    </r>
+    <t>##</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>##</t>
+    <t>##var</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -261,26 +248,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -563,7 +550,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -575,7 +562,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
@@ -584,52 +571,52 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="12" t="s">
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="8" t="s">
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="10" t="s">
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>21</v>
+      <c r="A2" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -647,12 +634,12 @@
       <c r="R2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
@@ -671,8 +658,8 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>21</v>
+      <c r="A3" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -702,8 +689,8 @@
       <c r="AD3" s="6"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>22</v>
+      <c r="A4" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -752,24 +739,24 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>22</v>
+      <c r="A5" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C6">

--- a/DesignerConfigs/Datas/test/multi_rows_record.xlsx
+++ b/DesignerConfigs/Datas/test/multi_rows_record.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA2B973-D1CE-4629-A107-B480CE1491A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31530" yWindow="1875" windowWidth="25140" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19890" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,143 +14,122 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>one_rows</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>注释行</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>ds</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>multi_rows7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>multi_rows1&amp;multi_rows=1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>items&amp;multi_rows=1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*multi_rows2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*multi_rows3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*multi_rows4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*multi_rows5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*multi_rows6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*&lt;name&gt; 是 &lt;name&gt;&amp;multi_rows=1的语法糖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>#</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>#</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>one_rows</t>
+  </si>
+  <si>
+    <t>multi_rows1#multi_rows=1</t>
+  </si>
+  <si>
+    <t>*multi_rows2</t>
+  </si>
+  <si>
+    <t>*multi_rows3</t>
+  </si>
+  <si>
+    <t>*multi_rows4</t>
+  </si>
+  <si>
+    <t>*multi_rows5</t>
+  </si>
+  <si>
+    <t>*multi_rows6</t>
+  </si>
+  <si>
+    <t>multi_rows7</t>
+  </si>
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>*items</t>
   </si>
   <si>
     <t>##</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>注释行</t>
+  </si>
+  <si>
+    <t>*&lt;name&gt; 是 &lt;name&gt;#multi_rows=1的语法糖</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>ds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -164,21 +137,149 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,10 +301,179 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -211,79 +481,335 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="30" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="23" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="29" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="差" xfId="3" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="适中" xfId="2" builtinId="28"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -541,229 +1067,229 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="5.75" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="13.6285714285714" customWidth="1"/>
+    <col min="7" max="7" width="5.75238095238095" customWidth="1"/>
+    <col min="8" max="8" width="22.5047619047619" customWidth="1"/>
+    <col min="9" max="9" width="13.5047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
+    <row r="1" spans="1:30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="6">
+      <c r="AA2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="3"/>
+    <row r="3" spans="1:30">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="6"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>21</v>
+    <row r="5" ht="48.75" customHeight="1" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:30">
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -826,12 +1352,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:28">
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -900,7 +1426,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="7:26">
       <c r="G8">
         <v>2</v>
       </c>
@@ -932,7 +1458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="7:26">
       <c r="G9">
         <v>2</v>
       </c>
@@ -970,7 +1496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="7:26">
       <c r="G10">
         <v>2</v>
       </c>
@@ -999,7 +1525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="7:20">
       <c r="G11">
         <v>2</v>
       </c>
@@ -1013,7 +1539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="7:20">
       <c r="G12">
         <v>2</v>
       </c>
@@ -1027,12 +1553,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:30">
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1098,7 +1624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="7:26">
       <c r="G14">
         <v>2</v>
       </c>
@@ -1142,7 +1668,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="9:26">
       <c r="I15">
         <v>3</v>
       </c>
@@ -1180,7 +1706,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="11:26">
       <c r="K16">
         <v>2</v>
       </c>
@@ -1210,23 +1736,23 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:T16">
+  <sortState ref="C6:T16">
     <sortCondition ref="C6:C16"/>
   </sortState>
   <mergeCells count="10">
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="D5:M5"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="N1:Q1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="D5:M5"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DesignerConfigs/Datas/test/multi_rows_record.xlsx
+++ b/DesignerConfigs/Datas/test/multi_rows_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8280"/>
+    <workbookView windowHeight="17580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,15 @@
     <t>##var</t>
   </si>
   <si>
+    <t>$key</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>*items</t>
   </si>
   <si>
@@ -78,15 +87,6 @@
   </si>
   <si>
     <t>名字</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>key</t>
   </si>
   <si>
     <t>注释行</t>
@@ -106,19 +106,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +149,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -164,39 +180,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,6 +212,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,56 +258,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,13 +299,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +341,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,43 +407,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,91 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,30 +472,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,13 +508,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,17 +553,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,148 +577,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -733,76 +726,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="30" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="24" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="29" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="23" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1076,7 +1069,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1153,15 +1146,23 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
       <c r="R2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -1214,59 +1215,47 @@
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" ht="48.75" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
